--- a/saveFiles/melon_chart.xlsx
+++ b/saveFiles/melon_chart.xlsx
@@ -483,7 +483,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-100,410</t>
+100,498</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-210,196</t>
+210,256</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-50,013</t>
+50,076</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-78,818</t>
+78,845</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-85,371</t>
+85,393</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-34,165</t>
+34,259</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-32,589</t>
+32,640</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-136,148</t>
+136,160</t>
         </is>
       </c>
     </row>
@@ -687,19 +687,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>THUNDER</t>
+          <t>TOO BAD (feat. Anderson .Paak)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>세븐틴 (SEVENTEEN)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-57,856</t>
+146,505</t>
         </is>
       </c>
     </row>
@@ -714,19 +714,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TOO BAD (feat. Anderson .Paak)</t>
+          <t>THUNDER</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>세븐틴 (SEVENTEEN)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-146,489</t>
+57,893</t>
         </is>
       </c>
     </row>
@@ -741,19 +741,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>나는 반딧불</t>
+          <t>HOME SWEET HOME (feat. 태양, 대성)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-145,694</t>
+213,425</t>
         </is>
       </c>
     </row>
@@ -768,19 +768,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME (feat. 태양, 대성)</t>
+          <t>나는 반딧불</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>황가람</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-213,416</t>
+145,704</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-193,176</t>
+193,195</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-64,860</t>
+64,896</t>
         </is>
       </c>
     </row>
@@ -849,19 +849,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>오늘만 I LOVE YOU</t>
+          <t>REBEL HEART</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-151,808</t>
+102,434</t>
         </is>
       </c>
     </row>
@@ -876,19 +876,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>REBEL HEART</t>
+          <t>오늘만 I LOVE YOU</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-102,418</t>
+151,830</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-52,947</t>
+52,966</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-213,174</t>
+213,181</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-39,721</t>
+39,742</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-354,082</t>
+354,091</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-20,288</t>
+20,318</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-30,406</t>
+30,457</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-73,624</t>
+73,630</t>
         </is>
       </c>
     </row>
@@ -1092,19 +1092,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>Welcome to the Show</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-182,345</t>
+179,885</t>
         </is>
       </c>
     </row>
@@ -1119,19 +1119,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>소나기</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>이클립스 (ECLIPSE)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-179,876</t>
+182,345</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-128,418</t>
+128,424</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-22,657</t>
+22,668</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-181,879</t>
+181,886</t>
         </is>
       </c>
     </row>
@@ -1227,19 +1227,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Die With A Smile</t>
+          <t>예뻤어</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Lady Gaga</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-99,212</t>
+370,473</t>
         </is>
       </c>
     </row>
@@ -1254,19 +1254,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>Die With A Smile</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>Lady Gaga</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-370,469</t>
+99,235</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-114,699</t>
+114,706</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-484,015</t>
+484,020</t>
         </is>
       </c>
     </row>
@@ -1335,19 +1335,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>내 이름 맑음</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>QWER</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-227,094</t>
+97,023</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-59,639</t>
+59,646</t>
         </is>
       </c>
     </row>
@@ -1389,19 +1389,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>내 이름 맑음</t>
+          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>너드커넥션 (Nerd Connection)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-97,015</t>
+151,499</t>
         </is>
       </c>
     </row>
@@ -1416,19 +1416,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>미치게 그리워서</t>
+          <t>I DO ME</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>KiiiKiii (키키)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-29,379</t>
+54,743</t>
         </is>
       </c>
     </row>
@@ -1443,19 +1443,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>미치게 그리워서</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>너드커넥션 (Nerd Connection)</t>
+          <t>황가람</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-151,493</t>
+29,383</t>
         </is>
       </c>
     </row>
@@ -1470,19 +1470,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>I DO ME</t>
+          <t>그날이 오면</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>KiiiKiii (키키)</t>
+          <t>투모로우바이투게더</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-54,727</t>
+30,876</t>
         </is>
       </c>
     </row>
@@ -1497,19 +1497,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>그날이 오면</t>
+          <t>DRIP</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>투모로우바이투게더</t>
+          <t>BABYMONSTER</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-30,853</t>
+62,156</t>
         </is>
       </c>
     </row>
@@ -1524,19 +1524,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Love wins all</t>
+          <t>고민중독</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>QWER</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-211,244</t>
+146,580</t>
         </is>
       </c>
     </row>
@@ -1551,19 +1551,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>청혼하지 않을 이유를 못 찾았어</t>
+          <t>Love wins all</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>아이유</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-57,536</t>
+211,244</t>
         </is>
       </c>
     </row>
@@ -1578,19 +1578,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>청혼하지 않을 이유를 못 찾았어</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>이무진</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-146,578</t>
+57,548</t>
         </is>
       </c>
     </row>
@@ -1605,19 +1605,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DRIP</t>
+          <t>사랑은 늘 도망가</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>BABYMONSTER</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-62,150</t>
+227,091</t>
         </is>
       </c>
     </row>
@@ -1632,19 +1632,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PO￦ER</t>
+          <t>첫 만남은 계획대로 되지 않아</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-158,408</t>
+160,968</t>
         </is>
       </c>
     </row>
@@ -1659,19 +1659,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>PO￦ER</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-160,966</t>
+158,412</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-71,102</t>
+71,100</t>
         </is>
       </c>
     </row>
@@ -1713,19 +1713,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fly Up</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>잔나비</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-38,851</t>
+443,174</t>
         </is>
       </c>
     </row>
@@ -1740,19 +1740,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>나는 아픈 건 딱 질색이니까</t>
+          <t>UP (KARINA Solo)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>i-dle (아이들)</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-170,393</t>
+111,313</t>
         </is>
       </c>
     </row>
@@ -1767,19 +1767,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>UP (KARINA Solo)</t>
+          <t>Fly Up</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>RIIZE</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-111,310</t>
+38,869</t>
         </is>
       </c>
     </row>
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>주저하는 연인들을 위해</t>
+          <t>How Sweet</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-443,164</t>
+151,136</t>
         </is>
       </c>
     </row>
@@ -1821,19 +1821,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>너의 모든 순간</t>
+          <t>Magnetic</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-309,051</t>
+133,971</t>
         </is>
       </c>
     </row>
@@ -1848,19 +1848,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>너의 모든 순간</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>성시경</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-128,026</t>
+309,050</t>
         </is>
       </c>
     </row>
@@ -1875,19 +1875,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>How Sweet</t>
+          <t>나는 아픈 건 딱 질색이니까</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>i-dle (아이들)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-151,129</t>
+170,393</t>
         </is>
       </c>
     </row>
@@ -1902,19 +1902,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Magnetic</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>멜로망스</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-133,965</t>
+225,052</t>
         </is>
       </c>
     </row>
@@ -1929,19 +1929,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>에피소드</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>멜로망스</t>
+          <t>이무진</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-225,053</t>
+128,037</t>
         </is>
       </c>
     </row>
@@ -1956,19 +1956,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>비의 랩소디</t>
+          <t>Hype Boy</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-101,497</t>
+309,784</t>
         </is>
       </c>
     </row>
@@ -1983,19 +1983,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>비의 랩소디</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>임재현</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-437,386</t>
+101,500</t>
         </is>
       </c>
     </row>
@@ -2010,19 +2010,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>다정히 내 이름을 부르면</t>
+          <t>Supersonic</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>경서예지</t>
+          <t>프로미스나인</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-214,145</t>
+80,778</t>
         </is>
       </c>
     </row>
@@ -2037,19 +2037,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Seven (feat. Latto) - Clean Ver.</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>정국</t>
+          <t>폴킴</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-223,219</t>
+437,386</t>
         </is>
       </c>
     </row>
@@ -2064,19 +2064,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>Seven (feat. Latto) - Clean Ver.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>정국</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-116,380</t>
+223,223</t>
         </is>
       </c>
     </row>
@@ -2091,19 +2091,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>TAKE ME</t>
+          <t>다정히 내 이름을 부르면</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>경서예지</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-63,987</t>
+214,147</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-230,126</t>
+230,123</t>
         </is>
       </c>
     </row>
@@ -2145,19 +2145,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Supersonic</t>
+          <t>헤어지자 말해요</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>프로미스나인</t>
+          <t>박재정</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-80,773</t>
+187,684</t>
         </is>
       </c>
     </row>
@@ -2172,19 +2172,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>TAKE ME</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-309,786</t>
+63,997</t>
         </is>
       </c>
     </row>
@@ -2199,19 +2199,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>HBD</t>
+          <t>Sticky</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>세븐틴 (SEVENTEEN)</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-32,386</t>
+90,186</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>천국보다 아름다운</t>
+          <t>우리들의 블루스</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2238,7 +2238,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-31,899</t>
+116,383</t>
         </is>
       </c>
     </row>
@@ -2253,19 +2253,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sticky</t>
+          <t>인사</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>KISS OF LIFE</t>
+          <t>범진</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-90,179</t>
+147,649</t>
         </is>
       </c>
     </row>
@@ -2280,19 +2280,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>눈물참기</t>
+          <t>봄날</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>방탄소년단</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-9,540</t>
+515,257</t>
         </is>
       </c>
     </row>
@@ -2307,19 +2307,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>헤어지자 말해요</t>
+          <t>HBD</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>박재정</t>
+          <t>세븐틴 (SEVENTEEN)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-187,686</t>
+32,395</t>
         </is>
       </c>
     </row>
@@ -2334,19 +2334,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>봄날</t>
+          <t>The Chase</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>Hearts2Hearts (하츠투하츠)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-515,252</t>
+34,598</t>
         </is>
       </c>
     </row>
@@ -2361,19 +2361,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>이렇게 좋아해 본 적이 없어요</t>
+          <t>눈물참기</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>QWER</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-56,032</t>
+9,673</t>
         </is>
       </c>
     </row>
@@ -2388,19 +2388,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>The Chase</t>
+          <t>천국보다 아름다운</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Hearts2Hearts (하츠투하츠)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-34,591</t>
+31,903</t>
         </is>
       </c>
     </row>
@@ -2415,19 +2415,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>다시 만날 수 있을까</t>
+          <t>이렇게 좋아해 본 적이 없어요</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-93,552</t>
+56,044</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-44,319</t>
+44,357</t>
         </is>
       </c>
     </row>
@@ -2469,19 +2469,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>인사</t>
+          <t>무제(無題) (Untitled, 2014)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>범진</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-147,644</t>
+318,107</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>이제 나만 믿어요</t>
+          <t>다시 만날 수 있을까</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2508,7 +2508,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-181,489</t>
+93,555</t>
         </is>
       </c>
     </row>
@@ -2523,19 +2523,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Skyfall (THE 8 Solo)</t>
+          <t>이제 나만 믿어요</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>세븐틴 (SEVENTEEN)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-43,205</t>
+181,493</t>
         </is>
       </c>
     </row>
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>무제(無題) (Untitled, 2014)</t>
+          <t>Small girl (feat. 도경수(D.O.))</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>이영지</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-318,102</t>
+163,419</t>
         </is>
       </c>
     </row>
@@ -2577,19 +2577,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>모래 알갱이</t>
+          <t>Dash</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>PLAVE</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-69,995</t>
+56,546</t>
         </is>
       </c>
     </row>
@@ -2604,19 +2604,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Dash</t>
+          <t>Skyfall (THE 8 Solo)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>세븐틴 (SEVENTEEN)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-56,544</t>
+43,209</t>
         </is>
       </c>
     </row>
@@ -2631,19 +2631,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>영원해</t>
+          <t>사막에서 꽃을 피우듯</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>도경수(D.O.)</t>
+          <t>우디 (Woody)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-22,266</t>
+107,755</t>
         </is>
       </c>
     </row>
@@ -2658,19 +2658,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Small girl (feat. 도경수(D.O.))</t>
+          <t>모래 알갱이</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>이영지</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-163,411</t>
+70,000</t>
         </is>
       </c>
     </row>
@@ -2685,19 +2685,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>온기</t>
+          <t>영원해</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>도경수(D.O.)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-46,056</t>
+22,281</t>
         </is>
       </c>
     </row>
@@ -2712,19 +2712,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>사막에서 꽃을 피우듯</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>우디 (Woody)</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-107,754</t>
+76,529</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-199,981</t>
+199,988</t>
         </is>
       </c>
     </row>
@@ -2766,19 +2766,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>굿데이 2025 (텔레파시 + 달빛 창가에서)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-76,527</t>
+42,298</t>
         </is>
       </c>
     </row>
@@ -2793,19 +2793,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>굿데이 2025 (텔레파시 + 달빛 창가에서)</t>
+          <t>온기</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-42,288</t>
+46,059</t>
         </is>
       </c>
     </row>
@@ -2820,19 +2820,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>I Feel Good</t>
+          <t>Ditto</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-38,892</t>
+304,637</t>
         </is>
       </c>
     </row>
@@ -2847,19 +2847,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Bag Bad Back</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>RIIZE</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-47,481</t>
+28,212</t>
         </is>
       </c>
     </row>
@@ -2874,19 +2874,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Bag Bad Back</t>
+          <t>I Feel Good</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-28,201</t>
+38,909</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Raindrops (SEUNGKWAN Solo)</t>
+          <t>99.9% (WONWOO Solo)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2913,7 +2913,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-27,158</t>
+43,233</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>99.9% (WONWOO Solo)</t>
+          <t>Raindrops (SEUNGKWAN Solo)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2940,7 +2940,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-43,230</t>
+27,162</t>
         </is>
       </c>
     </row>
@@ -2955,19 +2955,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>운명 (WOOZI Solo)</t>
+          <t>Armageddon</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>세븐틴 (SEVENTEEN)</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-26,587</t>
+93,048</t>
         </is>
       </c>
     </row>
@@ -2982,19 +2982,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ditto</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-304,635</t>
+47,483</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Bad Influence (Prod. by Pharrell Williams)</t>
+          <t>운명 (WOOZI Solo)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3021,7 +3021,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-26,648</t>
+26,592</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-28,695</t>
+28,698</t>
         </is>
       </c>
     </row>
@@ -3063,19 +3063,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Armageddon</t>
+          <t>Bad Influence (Prod. by Pharrell Williams)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>세븐틴 (SEVENTEEN)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-93,047</t>
+26,655</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
         <is>
           <t xml:space="preserve">
 총건수
-27,116</t>
+27,126</t>
         </is>
       </c>
     </row>
@@ -3117,19 +3117,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>우연 (JEONGHAN Solo)</t>
+          <t>안녕, 우주 (Memory)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>세븐틴 (SEVENTEEN)</t>
+          <t>도영 (DOYOUNG)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-34,069</t>
+18,897</t>
         </is>
       </c>
     </row>
@@ -3144,19 +3144,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>무지개</t>
+          <t>우연 (JEONGHAN Solo)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>세븐틴 (SEVENTEEN)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
           <t xml:space="preserve">
 총건수
-83,591</t>
+34,075</t>
         </is>
       </c>
     </row>
